--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3674443333333333</v>
+        <v>0.4557103333333333</v>
       </c>
       <c r="H2">
-        <v>1.102333</v>
+        <v>1.367131</v>
       </c>
       <c r="I2">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="J2">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3665173333333334</v>
+        <v>0.4884036666666667</v>
       </c>
       <c r="N2">
-        <v>1.099552</v>
+        <v>1.465211</v>
       </c>
       <c r="O2">
-        <v>0.02332756730862354</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="P2">
-        <v>0.02332756730862355</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="Q2">
-        <v>0.1346747172017778</v>
+        <v>0.2225705977378889</v>
       </c>
       <c r="R2">
-        <v>1.212072454816</v>
+        <v>2.003135379641</v>
       </c>
       <c r="S2">
-        <v>0.003243147829594133</v>
+        <v>0.006409189115790228</v>
       </c>
       <c r="T2">
-        <v>0.003243147829594134</v>
+        <v>0.006409189115790226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3674443333333333</v>
+        <v>0.4557103333333333</v>
       </c>
       <c r="H3">
-        <v>1.102333</v>
+        <v>1.367131</v>
       </c>
       <c r="I3">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="J3">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>42.613013</v>
       </c>
       <c r="O3">
-        <v>0.9040572241974459</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="P3">
-        <v>0.9040572241974461</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="Q3">
-        <v>5.219303384369889</v>
+        <v>6.473063452855889</v>
       </c>
       <c r="R3">
-        <v>46.973730459329</v>
+        <v>58.257571075703</v>
       </c>
       <c r="S3">
-        <v>0.1256878261541215</v>
+        <v>0.1863996783470964</v>
       </c>
       <c r="T3">
-        <v>0.1256878261541215</v>
+        <v>0.1863996783470964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3674443333333333</v>
+        <v>0.4557103333333333</v>
       </c>
       <c r="H4">
-        <v>1.102333</v>
+        <v>1.367131</v>
       </c>
       <c r="I4">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="J4">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.140913333333333</v>
+        <v>0.520567</v>
       </c>
       <c r="N4">
-        <v>3.42274</v>
+        <v>1.561701</v>
       </c>
       <c r="O4">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171377</v>
       </c>
       <c r="P4">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171376</v>
       </c>
       <c r="Q4">
-        <v>0.4192221391577778</v>
+        <v>0.2372277610923333</v>
       </c>
       <c r="R4">
-        <v>3.77299925242</v>
+        <v>2.135049849831</v>
       </c>
       <c r="S4">
-        <v>0.01009543141412596</v>
+        <v>0.006831259833101659</v>
       </c>
       <c r="T4">
-        <v>0.01009543141412596</v>
+        <v>0.006831259833101656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>2.028924</v>
       </c>
       <c r="I5">
-        <v>0.2558882030615162</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="J5">
-        <v>0.2558882030615163</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3665173333333334</v>
+        <v>0.4884036666666667</v>
       </c>
       <c r="N5">
-        <v>1.099552</v>
+        <v>1.465211</v>
       </c>
       <c r="O5">
-        <v>0.02332756730862354</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="P5">
-        <v>0.02332756730862355</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="Q5">
-        <v>0.247878604672</v>
+        <v>0.330311306996</v>
       </c>
       <c r="R5">
-        <v>2.230907442048</v>
+        <v>2.972801762964</v>
       </c>
       <c r="S5">
-        <v>0.005969249280400248</v>
+        <v>0.009511712935750543</v>
       </c>
       <c r="T5">
-        <v>0.005969249280400251</v>
+        <v>0.009511712935750538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>2.028924</v>
       </c>
       <c r="I6">
-        <v>0.2558882030615162</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="J6">
-        <v>0.2558882030615163</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>42.613013</v>
       </c>
       <c r="O6">
-        <v>0.9040572241974459</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="P6">
-        <v>0.9040572241974461</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="Q6">
         <v>9.606507198668</v>
@@ -824,10 +824,10 @@
         <v>86.458564788012</v>
       </c>
       <c r="S6">
-        <v>0.2313375785646667</v>
+        <v>0.2766309746401071</v>
       </c>
       <c r="T6">
-        <v>0.2313375785646668</v>
+        <v>0.2766309746401071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.028924</v>
       </c>
       <c r="I7">
-        <v>0.2558882030615162</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="J7">
-        <v>0.2558882030615163</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.140913333333333</v>
+        <v>0.520567</v>
       </c>
       <c r="N7">
-        <v>3.42274</v>
+        <v>1.561701</v>
       </c>
       <c r="O7">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171377</v>
       </c>
       <c r="P7">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171376</v>
       </c>
       <c r="Q7">
-        <v>0.7716088146400001</v>
+        <v>0.352063626636</v>
       </c>
       <c r="R7">
-        <v>6.94447933176</v>
+        <v>3.168572639724</v>
       </c>
       <c r="S7">
-        <v>0.0185813752164492</v>
+        <v>0.01013809724570356</v>
       </c>
       <c r="T7">
-        <v>0.0185813752164492</v>
+        <v>0.01013809724570356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.9146390000000001</v>
+        <v>0.3513206666666667</v>
       </c>
       <c r="H8">
-        <v>2.743917</v>
+        <v>1.053962</v>
       </c>
       <c r="I8">
-        <v>0.3460632288247102</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="J8">
-        <v>0.3460632288247103</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3665173333333334</v>
+        <v>0.4884036666666667</v>
       </c>
       <c r="N8">
-        <v>1.099552</v>
+        <v>1.465211</v>
       </c>
       <c r="O8">
-        <v>0.02332756730862354</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="P8">
-        <v>0.02332756730862355</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="Q8">
-        <v>0.3352310472426667</v>
+        <v>0.1715863017757778</v>
       </c>
       <c r="R8">
-        <v>3.017079425184</v>
+        <v>1.544276715982</v>
       </c>
       <c r="S8">
-        <v>0.00807281326344802</v>
+        <v>0.004941034750039683</v>
       </c>
       <c r="T8">
-        <v>0.008072813263448022</v>
+        <v>0.004941034750039681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.9146390000000001</v>
+        <v>0.3513206666666667</v>
       </c>
       <c r="H9">
-        <v>2.743917</v>
+        <v>1.053962</v>
       </c>
       <c r="I9">
-        <v>0.3460632288247102</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="J9">
-        <v>0.3460632288247103</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>42.613013</v>
       </c>
       <c r="O9">
-        <v>0.9040572241974459</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="P9">
-        <v>0.9040572241974461</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="Q9">
-        <v>12.99184119910234</v>
+        <v>4.990277378611778</v>
       </c>
       <c r="R9">
-        <v>116.926570791921</v>
+        <v>44.912496407506</v>
       </c>
       <c r="S9">
-        <v>0.3128609620480731</v>
+        <v>0.1437010628755126</v>
       </c>
       <c r="T9">
-        <v>0.3128609620480732</v>
+        <v>0.1437010628755126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.9146390000000001</v>
+        <v>0.3513206666666667</v>
       </c>
       <c r="H10">
-        <v>2.743917</v>
+        <v>1.053962</v>
       </c>
       <c r="I10">
-        <v>0.3460632288247102</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="J10">
-        <v>0.3460632288247103</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.140913333333333</v>
+        <v>0.520567</v>
       </c>
       <c r="N10">
-        <v>3.42274</v>
+        <v>1.561701</v>
       </c>
       <c r="O10">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171377</v>
       </c>
       <c r="P10">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171376</v>
       </c>
       <c r="Q10">
-        <v>1.043523830286667</v>
+        <v>0.1828859454846667</v>
       </c>
       <c r="R10">
-        <v>9.39171447258</v>
+        <v>1.645973509362</v>
       </c>
       <c r="S10">
-        <v>0.02512945351318908</v>
+        <v>0.005266421634953411</v>
       </c>
       <c r="T10">
-        <v>0.02512945351318908</v>
+        <v>0.005266421634953409</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.13526</v>
+        <v>0.3449053333333333</v>
       </c>
       <c r="H11">
-        <v>0.40578</v>
+        <v>1.034716</v>
       </c>
       <c r="I11">
-        <v>0.05117703523557415</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="J11">
-        <v>0.05117703523557417</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3665173333333334</v>
+        <v>0.4884036666666667</v>
       </c>
       <c r="N11">
-        <v>1.099552</v>
+        <v>1.465211</v>
       </c>
       <c r="O11">
-        <v>0.02332756730862354</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="P11">
-        <v>0.02332756730862355</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="Q11">
-        <v>0.04957513450666668</v>
+        <v>0.1684530294528889</v>
       </c>
       <c r="R11">
-        <v>0.4461762105600001</v>
+        <v>1.516077265076</v>
       </c>
       <c r="S11">
-        <v>0.001193835734113655</v>
+        <v>0.004850808390076739</v>
       </c>
       <c r="T11">
-        <v>0.001193835734113655</v>
+        <v>0.004850808390076737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.13526</v>
+        <v>0.3449053333333333</v>
       </c>
       <c r="H12">
-        <v>0.40578</v>
+        <v>1.034716</v>
       </c>
       <c r="I12">
-        <v>0.05117703523557415</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="J12">
-        <v>0.05117703523557417</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>42.613013</v>
       </c>
       <c r="O12">
-        <v>0.9040572241974459</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="P12">
-        <v>0.9040572241974461</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="Q12">
-        <v>1.921278712793334</v>
+        <v>4.899151817700889</v>
       </c>
       <c r="R12">
-        <v>17.29150841514</v>
+        <v>44.092366359308</v>
       </c>
       <c r="S12">
-        <v>0.04626696841772805</v>
+        <v>0.141076992314997</v>
       </c>
       <c r="T12">
-        <v>0.04626696841772807</v>
+        <v>0.141076992314997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.13526</v>
+        <v>0.3449053333333333</v>
       </c>
       <c r="H13">
-        <v>0.40578</v>
+        <v>1.034716</v>
       </c>
       <c r="I13">
-        <v>0.05117703523557415</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="J13">
-        <v>0.05117703523557417</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.140913333333333</v>
+        <v>0.520567</v>
       </c>
       <c r="N13">
-        <v>3.42274</v>
+        <v>1.561701</v>
       </c>
       <c r="O13">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171377</v>
       </c>
       <c r="P13">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171376</v>
       </c>
       <c r="Q13">
-        <v>0.1543199374666667</v>
+        <v>0.1795463346573333</v>
       </c>
       <c r="R13">
-        <v>1.3888794372</v>
+        <v>1.615917011916</v>
       </c>
       <c r="S13">
-        <v>0.003716231083732439</v>
+        <v>0.005170253508601309</v>
       </c>
       <c r="T13">
-        <v>0.003716231083732441</v>
+        <v>0.005170253508601307</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.549331</v>
+        <v>0.4544146666666666</v>
       </c>
       <c r="H14">
-        <v>1.647993</v>
+        <v>1.363244</v>
       </c>
       <c r="I14">
-        <v>0.2078451274803577</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="J14">
-        <v>0.2078451274803578</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3665173333333334</v>
+        <v>0.4884036666666667</v>
       </c>
       <c r="N14">
-        <v>1.099552</v>
+        <v>1.465211</v>
       </c>
       <c r="O14">
-        <v>0.02332756730862354</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="P14">
-        <v>0.02332756730862355</v>
+        <v>0.03210371182687088</v>
       </c>
       <c r="Q14">
-        <v>0.2013393332373334</v>
+        <v>0.2219377893871111</v>
       </c>
       <c r="R14">
-        <v>1.812053999136</v>
+        <v>1.997440104484</v>
       </c>
       <c r="S14">
-        <v>0.004848521201067485</v>
+        <v>0.006390966635213696</v>
       </c>
       <c r="T14">
-        <v>0.004848521201067488</v>
+        <v>0.006390966635213693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.549331</v>
+        <v>0.4544146666666666</v>
       </c>
       <c r="H15">
-        <v>1.647993</v>
+        <v>1.363244</v>
       </c>
       <c r="I15">
-        <v>0.2078451274803577</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="J15">
-        <v>0.2078451274803578</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>42.613013</v>
       </c>
       <c r="O15">
-        <v>0.9040572241974459</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="P15">
-        <v>0.9040572241974461</v>
+        <v>0.9336784186214153</v>
       </c>
       <c r="Q15">
-        <v>7.802883014767668</v>
+        <v>6.454659366019111</v>
       </c>
       <c r="R15">
-        <v>70.225947132909</v>
+        <v>58.091934294172</v>
       </c>
       <c r="S15">
-        <v>0.1879038890128565</v>
+        <v>0.1858697104437022</v>
       </c>
       <c r="T15">
-        <v>0.1879038890128566</v>
+        <v>0.1858697104437022</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.549331</v>
+        <v>0.4544146666666666</v>
       </c>
       <c r="H16">
-        <v>1.647993</v>
+        <v>1.363244</v>
       </c>
       <c r="I16">
-        <v>0.2078451274803577</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="J16">
-        <v>0.2078451274803578</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.140913333333333</v>
+        <v>0.520567</v>
       </c>
       <c r="N16">
-        <v>3.42274</v>
+        <v>1.561701</v>
       </c>
       <c r="O16">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171377</v>
       </c>
       <c r="P16">
-        <v>0.0726152084939304</v>
+        <v>0.03421786955171376</v>
       </c>
       <c r="Q16">
-        <v>0.6267390623133334</v>
+        <v>0.2365532797826667</v>
       </c>
       <c r="R16">
-        <v>5.64065156082</v>
+        <v>2.128979518044</v>
       </c>
       <c r="S16">
-        <v>0.01509271726643372</v>
+        <v>0.006811837329353835</v>
       </c>
       <c r="T16">
-        <v>0.01509271726643372</v>
+        <v>0.006811837329353833</v>
       </c>
     </row>
   </sheetData>
